--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatia\Google Drive\Project\Automation\ZAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ZAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18090" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="121">
   <si>
     <t>TSID</t>
   </si>
@@ -541,6 +541,12 @@
       </rPr>
       <t>(Locator Value, Parameter Value)</t>
     </r>
+  </si>
+  <si>
+    <t>DO NOT EXECUTE THIS STEP</t>
+  </si>
+  <si>
+    <t>Close the browser</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1050,7 @@
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="66" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
@@ -1351,6 +1357,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17">
+        <v>13</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>117</v>
       </c>
@@ -1365,6 +1380,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="17">
+        <v>14</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>117</v>
       </c>
@@ -1379,6 +1403,15 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="17">
+        <v>15</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>117</v>
       </c>
@@ -1393,6 +1426,15 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17">
+        <v>16</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>117</v>
       </c>
@@ -1407,6 +1449,15 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="17">
+        <v>17</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>117</v>
       </c>
@@ -1421,6 +1472,15 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17">
+        <v>18</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>117</v>
       </c>
@@ -1435,6 +1495,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="17">
+        <v>19</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>117</v>
       </c>
@@ -1449,6 +1518,15 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="17">
+        <v>20</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>117</v>
       </c>
@@ -1459,10 +1537,19 @@
         <v>94</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="17">
+        <v>21</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>113</v>
       </c>
@@ -1477,6 +1564,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="17">
+        <v>22</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>113</v>
       </c>
@@ -1491,6 +1587,15 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="17">
+        <v>23</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>117</v>
       </c>
@@ -1505,6 +1610,15 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="17">
+        <v>24</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>106</v>
       </c>
@@ -1516,26 +1630,20 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1545,21 +1653,19 @@
         <v>65</v>
       </c>
       <c r="C27" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1569,23 +1675,21 @@
         <v>65</v>
       </c>
       <c r="C28" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1595,19 +1699,19 @@
         <v>65</v>
       </c>
       <c r="C29" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>60</v>
@@ -1621,10 +1725,10 @@
         <v>65</v>
       </c>
       <c r="C30" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>117</v>
@@ -1633,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,10 +1751,10 @@
         <v>65</v>
       </c>
       <c r="C31" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>117</v>
@@ -1659,10 +1763,10 @@
         <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,10 +1777,10 @@
         <v>65</v>
       </c>
       <c r="C32" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>117</v>
@@ -1685,10 +1789,10 @@
         <v>37</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,10 +1803,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>117</v>
@@ -1711,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="12">
-        <v>37210</v>
+        <v>68</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,10 +1829,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>117</v>
@@ -1737,10 +1841,10 @@
         <v>37</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="H34" s="12">
+        <v>37210</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,63 +1855,93 @@
         <v>65</v>
       </c>
       <c r="C35" s="11">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="11">
         <v>10</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="F36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19" t="s">
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35"/>
+  <autoFilter ref="A1:H36"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F36 F4:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F26:F37">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G26">
-      <formula1>E26="Bowser_Open"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
+      <formula1>E27="Bowser_Open"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" display="www.google.com"/>
-    <hyperlink ref="H32" r:id="rId2" display="www.google.com"/>
-    <hyperlink ref="H28" r:id="rId3"/>
-    <hyperlink ref="H29" r:id="rId4"/>
-    <hyperlink ref="H30" r:id="rId5"/>
-    <hyperlink ref="H34" r:id="rId6"/>
-    <hyperlink ref="H2" r:id="rId7" display="www.google.com"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H18" r:id="rId9"/>
-    <hyperlink ref="H19" r:id="rId10"/>
-    <hyperlink ref="H20" r:id="rId11"/>
-    <hyperlink ref="H21" r:id="rId12"/>
+    <hyperlink ref="H2" r:id="rId1" display="www.google.com"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H19" r:id="rId4"/>
+    <hyperlink ref="H20" r:id="rId5"/>
+    <hyperlink ref="H35" r:id="rId6"/>
+    <hyperlink ref="H30" r:id="rId7"/>
+    <hyperlink ref="H29" r:id="rId8"/>
+    <hyperlink ref="H33" r:id="rId9" display="www.google.com"/>
+    <hyperlink ref="H27" r:id="rId10" display="www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
   <si>
     <t>TSID</t>
   </si>
@@ -547,6 +547,33 @@
   </si>
   <si>
     <t>Close the browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute </t>
+  </si>
+  <si>
+    <t>Object: Validate if Present (locator value)</t>
+  </si>
+  <si>
+    <t>Object: Click (locator value)</t>
+  </si>
+  <si>
+    <t>Textbox: Enter text (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Caption/Text: Validate Text (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Button: Validate Text (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Textbox: Enter Text (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Key: Press (Enter/Return/Tab/Escape) (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Browser: Open (parameter value)</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1117,7 +1144,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>76</v>
@@ -1141,7 +1168,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>76</v>
@@ -1165,7 +1192,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>36</v>
@@ -1187,7 +1214,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1211,7 +1238,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1232,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1255,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1278,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>36</v>
@@ -1301,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>37</v>
@@ -1324,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>37</v>
@@ -1344,7 +1371,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>36</v>
@@ -1367,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>37</v>
@@ -1390,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>37</v>
@@ -1413,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>37</v>
@@ -1436,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>37</v>
@@ -1459,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>37</v>
@@ -1482,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>37</v>
@@ -1505,7 +1532,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>96</v>
@@ -1528,7 +1555,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>96</v>
@@ -1551,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>37</v>
@@ -1574,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>37</v>
@@ -1597,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>37</v>
@@ -1620,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>37</v>
@@ -1659,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -1681,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
@@ -1731,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
@@ -1757,7 +1784,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
@@ -1783,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>37</v>
@@ -1809,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>37</v>
@@ -1835,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -1861,7 +1888,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
@@ -1887,7 +1914,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>37</v>
@@ -1914,6 +1941,11 @@
       <c r="F37" s="18"/>
       <c r="G37" s="8"/>
       <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H36"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="136">
   <si>
     <t>TSID</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Object: Click (locator value)</t>
   </si>
   <si>
-    <t>Textbox: Enter text (locator value, parameter value)</t>
-  </si>
-  <si>
     <t>Caption/Text: Validate Text (locator value, parameter value)</t>
   </si>
   <si>
@@ -574,6 +571,27 @@
   </si>
   <si>
     <t>Browser: Open (parameter value)</t>
+  </si>
+  <si>
+    <t>Checkbox: Validate if Selected (locator value)</t>
+  </si>
+  <si>
+    <t>Dropdown: Select Value (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Dropdown: Validate Value (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Radiobutton: Validate if Selected (locator value)</t>
+  </si>
+  <si>
+    <t>Textbox: Validate Text (locator value, parameter value)</t>
+  </si>
+  <si>
+    <t>Execute above steps</t>
+  </si>
+  <si>
+    <t>Do Not Execute This Step</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,9 +1100,10 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" customWidth="1"/>
+    <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>52</v>
       </c>
@@ -1110,7 +1129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1132,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1163,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>76</v>
@@ -1156,7 +1175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1187,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>76</v>
@@ -1180,7 +1199,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1221,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1233,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1226,7 +1245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1267,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1271,7 +1290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1294,7 +1313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>36</v>
@@ -1316,8 +1335,11 @@
       <c r="H10" s="22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>37</v>
@@ -1339,8 +1361,11 @@
       <c r="H11" s="22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -1359,8 +1384,11 @@
       <c r="G12" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -1371,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>36</v>
@@ -1382,8 +1410,11 @@
       <c r="H13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -1394,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>37</v>
@@ -1405,8 +1436,11 @@
       <c r="H14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -1417,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>37</v>
@@ -1428,8 +1462,11 @@
       <c r="H15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1440,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>37</v>
@@ -1451,8 +1488,11 @@
       <c r="H16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>37</v>
@@ -1474,8 +1514,11 @@
       <c r="H17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -1486,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>37</v>
@@ -1497,8 +1540,11 @@
       <c r="H18" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>37</v>
@@ -1520,8 +1566,11 @@
       <c r="H19" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +1581,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>96</v>
@@ -1543,8 +1592,11 @@
       <c r="H20" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>96</v>
@@ -1566,8 +1618,11 @@
       <c r="H21" s="23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
@@ -1578,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>37</v>
@@ -1589,8 +1644,11 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>37</v>
@@ -1612,8 +1670,11 @@
       <c r="H23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1624,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>37</v>
@@ -1635,8 +1696,11 @@
       <c r="H24" s="24">
         <v>36120</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -1655,8 +1719,11 @@
       <c r="G25" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1739,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +1753,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -1694,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +1785,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1732,7 +1799,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -1744,7 +1811,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1825,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
@@ -1770,7 +1837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
@@ -1796,7 +1863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1877,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>37</v>
@@ -1836,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>37</v>
@@ -1862,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -1888,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
@@ -1949,7 +2016,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H36"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F26:F37">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
@@ -1958,6 +2025,9 @@
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
+      <formula1>$N$10:$N$25</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ZAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbhatia\TAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="135">
   <si>
     <t>TSID</t>
   </si>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>Close the browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execute </t>
   </si>
   <si>
     <t>Object: Validate if Present (locator value)</t>
@@ -1084,26 +1081,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="66" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" customWidth="1"/>
+    <col min="8" max="8" width="37.453125" customWidth="1"/>
     <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>52</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1151,7 +1148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1160,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>76</v>
@@ -1175,7 +1172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1184,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>76</v>
@@ -1199,7 +1196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>36</v>
@@ -1221,7 +1218,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1230,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1245,7 +1242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1254,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1267,7 +1264,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -1290,7 +1287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -1313,7 +1310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>36</v>
@@ -1336,10 +1333,10 @@
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>37</v>
@@ -1365,7 +1362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>37</v>
@@ -1385,10 +1382,10 @@
         <v>72</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>36</v>
@@ -1411,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>37</v>
@@ -1437,10 +1434,10 @@
         <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>37</v>
@@ -1463,10 +1460,10 @@
         <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>37</v>
@@ -1489,10 +1486,10 @@
         <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>37</v>
@@ -1515,10 +1512,10 @@
         <v>99</v>
       </c>
       <c r="N17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>37</v>
@@ -1541,10 +1538,10 @@
         <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>37</v>
@@ -1567,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1578,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>96</v>
@@ -1596,7 +1593,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1607,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>96</v>
@@ -1619,10 +1616,10 @@
         <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>37</v>
@@ -1645,10 +1642,10 @@
         <v>91</v>
       </c>
       <c r="N22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>37</v>
@@ -1671,10 +1668,10 @@
         <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1685,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>37</v>
@@ -1700,7 +1697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>37</v>
@@ -1720,10 +1717,10 @@
         <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1736,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1750,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -1761,7 +1758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1775,7 +1772,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
@@ -1785,7 +1782,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -1811,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1825,7 +1822,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
@@ -1837,7 +1834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
@@ -1863,7 +1860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>37</v>
@@ -1889,7 +1886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>37</v>
@@ -1915,7 +1912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -1941,7 +1938,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1952,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
@@ -1967,7 +1964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>37</v>
@@ -1991,7 +1988,7 @@
       </c>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -2008,11 +2005,6 @@
       <c r="F37" s="18"/>
       <c r="G37" s="8"/>
       <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="15" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H36"/>
@@ -2056,13 +2048,13 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2112,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2149,7 +2141,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2205,7 +2197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2286,22 +2278,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R9" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R10" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2336,7 +2328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2392,7 +2384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2446,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2482,7 +2474,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2496,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2528,7 +2520,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2556,7 +2548,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2584,7 +2576,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2612,7 +2604,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2640,7 +2632,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2662,17 +2654,17 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E25" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E26" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E30" s="4" t="s">
         <v>32</v>
       </c>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A13:XFD13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -12,11 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="142">
   <si>
     <t>TSID</t>
   </si>
@@ -412,9 +414,6 @@
     </r>
   </si>
   <si>
-    <t>Parameter Value</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Caption/Text: Validate Text </t>
     </r>
@@ -589,6 +588,30 @@
   </si>
   <si>
     <t>Do Not Execute This Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Registration Student Registration Student Registration Student Registration Student Registration </t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Browser: Open (test data)</t>
+  </si>
+  <si>
+    <t>Caption/Text: Validate Text (locator value, test data)</t>
+  </si>
+  <si>
+    <t>Button: Validate Text (locator value, test data)</t>
+  </si>
+  <si>
+    <t>Textbox: Enter Text (locator value, test data)</t>
+  </si>
+  <si>
+    <t>Key: Press (Enter/Return/Tab/Escape) (locator value, test data)</t>
   </si>
 </sst>
 </file>
@@ -767,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,12 +816,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1080,58 +1101,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="66" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" customWidth="1"/>
-    <col min="8" max="8" width="37.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1"/>
     <col min="10" max="10" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>102</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -1140,7 +1160,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1148,7 +1168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -1158,9 +1178,11 @@
       <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="14" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>76</v>
@@ -1172,7 +1194,118 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+  </sheetData>
+  <autoFilter ref="A1:H3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"ID, Xpath, Name, CssSelector"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="www.google.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="66" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1"/>
+    <col min="10" max="10" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1182,9 +1315,11 @@
       <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" s="14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>76</v>
@@ -1196,7 +1331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1206,9 +1341,11 @@
       <c r="C5" s="17">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>36</v>
@@ -1218,7 +1355,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1365,11 @@
       <c r="C6" s="17">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1242,7 +1381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1252,9 +1391,11 @@
       <c r="C7" s="17">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1264,7 +1405,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -1274,20 +1415,23 @@
       <c r="C8" s="17">
         <v>7</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -1297,20 +1441,23 @@
       <c r="C9" s="17">
         <v>8</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
@@ -1320,23 +1467,26 @@
       <c r="C10" s="17">
         <v>9</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="23" t="s">
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
@@ -1346,23 +1496,26 @@
       <c r="C11" s="17">
         <v>10</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>85</v>
       </c>
       <c r="N11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -1372,20 +1525,24 @@
       <c r="C12" s="17">
         <v>11</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="H12" s="4"/>
       <c r="N12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
@@ -1395,23 +1552,26 @@
       <c r="C13" s="17">
         <v>12</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -1421,23 +1581,26 @@
       <c r="C14" s="17">
         <v>13</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -1447,23 +1610,26 @@
       <c r="C15" s="17">
         <v>14</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1473,23 +1639,26 @@
       <c r="C16" s="17">
         <v>15</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -1499,23 +1668,26 @@
       <c r="C17" s="17">
         <v>16</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -1525,23 +1697,26 @@
       <c r="C18" s="17">
         <v>17</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="6" t="s">
         <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -1551,23 +1726,26 @@
       <c r="C19" s="17">
         <v>18</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="6" t="s">
         <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
@@ -1577,23 +1755,26 @@
       <c r="C20" s="17">
         <v>19</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1603,23 +1784,26 @@
       <c r="C21" s="17">
         <v>20</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="6" t="s">
         <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
@@ -1629,23 +1813,26 @@
       <c r="C22" s="17">
         <v>21</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="N22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1655,23 +1842,26 @@
       <c r="C23" s="17">
         <v>22</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1681,23 +1871,26 @@
       <c r="C24" s="17">
         <v>23</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="12">
         <v>36120</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -1707,36 +1900,41 @@
       <c r="C25" s="17">
         <v>24</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="23" t="s">
         <v>72</v>
       </c>
+      <c r="H25" s="4"/>
       <c r="N25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="s">
+      <c r="C26" s="17">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1948,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -1758,7 +1956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1970,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
@@ -1782,7 +1980,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1796,7 +1994,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -1808,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +2020,7 @@
         <v>41</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>37</v>
@@ -1834,7 +2032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1848,7 +2046,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>37</v>
@@ -1860,7 +2058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>37</v>
@@ -1886,7 +2084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1900,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>37</v>
@@ -1912,7 +2110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1926,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>37</v>
@@ -1938,7 +2136,7 @@
         <v>37210</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -1952,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>37</v>
@@ -1964,7 +2162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>37</v>
@@ -1988,7 +2186,7 @@
       </c>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2195,7 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>101</v>
@@ -2009,7 +2207,7 @@
   </sheetData>
   <autoFilter ref="A1:H36"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F26:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F27:F37">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
@@ -2039,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R30"/>
@@ -2048,13 +2246,13 @@
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2310,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2138,10 +2336,10 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2170,7 +2368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -2194,10 +2392,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2221,10 +2419,10 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="R6" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2275,25 +2473,25 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="R8" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R9" s="4" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="R10" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R11" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2355,7 +2553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2412,10 +2610,10 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2443,10 +2641,10 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2474,7 +2672,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -2496,7 +2694,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2520,7 +2718,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2548,7 +2746,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2774,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2604,7 +2802,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -2632,7 +2830,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2654,17 +2852,17 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E26" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>32</v>
       </c>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,8 +1214,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
         <v>46</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>37</v>
@@ -2210,14 +2210,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F27:F37">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
-      <formula1>E27="Bowser_Open"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
       <formula1>$N$10:$N$25</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G27">
+      <formula1>E27="Bowser_Open"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
   <si>
     <t>TSID</t>
   </si>
@@ -1101,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1192,11 @@
       </c>
       <c r="H3" s="4" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1219,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$H$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1101,10 +1102,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N37"/>
@@ -2242,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R30"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="4710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$H$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$H$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="144">
   <si>
     <t>TSID</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>Key: Press (Enter/Return/Tab/Escape) (locator value, test data)</t>
+  </si>
+  <si>
+    <t>Browser: Clos</t>
+  </si>
+  <si>
+    <t>Browser: Open (specify link under test data column)</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1211,7 +1217,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1234,8 +1240,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1297,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1968,7 +1974,7 @@
         <v>57</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="7"/>
@@ -2241,7 +2247,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="www.google.com"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://sits-uat.its.waikato.ac.nz/sitsvision/wrd/siw_ipp_lgn.login?process=siw_ipp_app_crs"/>
     <hyperlink ref="H8" r:id="rId2"/>
     <hyperlink ref="H18" r:id="rId3"/>
     <hyperlink ref="H19" r:id="rId4"/>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -618,7 +618,7 @@
     <t>Browser: Clos</t>
   </si>
   <si>
-    <t>Browser: Open (specify link under test data column)</t>
+    <t>Browser: Open (specify link under Test Data column)</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2233,7 @@
   </sheetData>
   <autoFilter ref="A1:H36"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F9 F27:F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F4:F9 F27:F37">
       <formula1>"ID, Xpath, Name, CssSelector"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3">
@@ -2247,16 +2247,16 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://sits-uat.its.waikato.ac.nz/sitsvision/wrd/siw_ipp_lgn.login?process=siw_ipp_app_crs"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H18" r:id="rId3"/>
-    <hyperlink ref="H19" r:id="rId4"/>
-    <hyperlink ref="H20" r:id="rId5"/>
-    <hyperlink ref="H35" r:id="rId6"/>
-    <hyperlink ref="H30" r:id="rId7"/>
-    <hyperlink ref="H29" r:id="rId8"/>
-    <hyperlink ref="H33" r:id="rId9" display="www.google.com"/>
-    <hyperlink ref="H27" r:id="rId10" display="www.google.com"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H18" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H20" r:id="rId4"/>
+    <hyperlink ref="H35" r:id="rId5"/>
+    <hyperlink ref="H30" r:id="rId6"/>
+    <hyperlink ref="H29" r:id="rId7"/>
+    <hyperlink ref="H33" r:id="rId8" display="www.google.com"/>
+    <hyperlink ref="H27" r:id="rId9" display="www.google.com"/>
+    <hyperlink ref="H2" r:id="rId10" display="www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
